--- a/output/GNER-supervised-WQ.xlsx
+++ b/output/GNER-supervised-WQ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/Downloads/DeepKNLP-24-master/output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Downloads\DeepKNLP-24-master\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DCFFA4-98D0-EC4D-91A9-52BBB0474961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805012BF-3677-4DAC-B7D2-8FC994CDE0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21200" xr2:uid="{FB2F624B-30EC-42FA-8320-90179873AEFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27240" windowHeight="14850" xr2:uid="{FB2F624B-30EC-42FA-8320-90179873AEFE}"/>
   </bookViews>
   <sheets>
     <sheet name="GNER-supervised" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
   <si>
     <t>Llama3-1B-BL</t>
   </si>
@@ -171,6 +171,22 @@
   </si>
   <si>
     <t>Experiment ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg. Diff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg. Impr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg. Base</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -178,11 +194,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0000"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="181" formatCode="[Blue]\+0.0%;[Red]\-0.0%"/>
+    <numFmt numFmtId="182" formatCode="[Blue]\+0.0000;[Red]\-0.0000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,7 +217,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -207,22 +225,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -242,32 +262,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -600,19 +633,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54D821E-0639-4128-B4FD-DABFED44D2DB}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" style="1" customWidth="1"/>
-    <col min="2" max="9" width="9.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="1" width="18.875" style="1" customWidth="1"/>
+    <col min="2" max="9" width="9.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9.625" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="20.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1">
+    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -643,12 +679,21 @@
       <c r="J1" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1">
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>0.78397553081082405</v>
       </c>
       <c r="C2" s="1">
@@ -675,232 +720,326 @@
       <c r="J2" s="2">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1">
+      <c r="K2" s="1">
+        <f>SUMIF($A$1:$A$9, "*-BL", $B$1:$B$9)</f>
+        <v>0.78397553081082405</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.69999110496858397</v>
+        <v>7</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.77265212027319297</v>
       </c>
       <c r="C3" s="1">
-        <v>0.58362168391827496</v>
+        <v>0.69731800761268603</v>
       </c>
       <c r="D3" s="1">
-        <v>0.605809128580996</v>
+        <v>0.71748878918752301</v>
       </c>
       <c r="E3" s="1">
-        <v>0.67261496220137795</v>
+        <v>0.723214285664179</v>
       </c>
       <c r="F3" s="1">
-        <v>0.63100775188813996</v>
+        <v>0.77276456106555602</v>
       </c>
       <c r="G3" s="1">
-        <v>0.70382513656204804</v>
+        <v>0.78300803668920804</v>
       </c>
       <c r="H3" s="1">
-        <v>0.91139240501290997</v>
+        <v>0.92340425526875602</v>
       </c>
       <c r="I3" s="1">
-        <v>0.791666666616338</v>
+        <v>0.79136690642444296</v>
       </c>
       <c r="J3" s="2">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1">
+        <v>5.5</v>
+      </c>
+      <c r="K3" s="1">
+        <f>SUMIF($A$1:$A$9, "*-BL", $B$1:$B$9)</f>
+        <v>0.78397553081082405</v>
+      </c>
+      <c r="L3" s="3">
+        <f>B3-K3</f>
+        <v>-1.1323410537631085E-2</v>
+      </c>
+      <c r="M3" s="6">
+        <f>B3/K3-1</f>
+        <v>-1.444357647989325E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>0.69465114227134195</v>
+        <v>0.76215817525428897</v>
       </c>
       <c r="C4" s="1">
-        <v>0.60355029580830399</v>
+        <v>0.70036991363680101</v>
       </c>
       <c r="D4" s="1">
-        <v>0.61776859499164605</v>
+        <v>0.726881720380119</v>
       </c>
       <c r="E4" s="1">
-        <v>0.67586206891566103</v>
+        <v>0.729106628192007</v>
       </c>
       <c r="F4" s="1">
-        <v>0.608036391155787</v>
+        <v>0.729751403318043</v>
       </c>
       <c r="G4" s="1">
-        <v>0.67250821462691002</v>
+        <v>0.75877689689210404</v>
       </c>
       <c r="H4" s="1">
-        <v>0.90445859867573097</v>
+        <v>0.91063829782195205</v>
       </c>
       <c r="I4" s="1">
-        <v>0.78037383172535302</v>
+        <v>0.77958236653899804</v>
       </c>
       <c r="J4" s="2">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1">
+        <f>SUMIF($A$1:$A$9, "*-BL", $B$1:$B$9)</f>
+        <v>0.78397553081082405</v>
+      </c>
+      <c r="L4" s="3">
+        <f>B4-K4</f>
+        <v>-2.1817355556535079E-2</v>
+      </c>
+      <c r="M4" s="6">
+        <f>B4/K4-1</f>
+        <v>-2.7829128205022591E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>0.76215817525428897</v>
+        <v>0.74382849440474996</v>
       </c>
       <c r="C5" s="1">
-        <v>0.70036991363680101</v>
+        <v>0.69662921343307804</v>
       </c>
       <c r="D5" s="1">
-        <v>0.726881720380119</v>
+        <v>0.681818181768169</v>
       </c>
       <c r="E5" s="1">
-        <v>0.729106628192007</v>
+        <v>0.71479628300928699</v>
       </c>
       <c r="F5" s="1">
-        <v>0.729751403318043</v>
+        <v>0.73462783166513801</v>
       </c>
       <c r="G5" s="1">
-        <v>0.75877689689210404</v>
+        <v>0.74568469500161705</v>
       </c>
       <c r="H5" s="1">
-        <v>0.91063829782195205</v>
+        <v>0.86919831218592303</v>
       </c>
       <c r="I5" s="1">
-        <v>0.77958236653899804</v>
+        <v>0.76404494377003895</v>
       </c>
       <c r="J5" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1">
+        <v>10.5</v>
+      </c>
+      <c r="K5" s="1">
+        <f>SUMIF($A$1:$A$9, "*-BL", $B$1:$B$9)</f>
+        <v>0.78397553081082405</v>
+      </c>
+      <c r="L5" s="3">
+        <f>B5-K5</f>
+        <v>-4.0147036406074088E-2</v>
+      </c>
+      <c r="M5" s="6">
+        <f>B5/K5-1</f>
+        <v>-5.1209552885601139E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>0.74382849440474996</v>
+        <v>0.72501843561930801</v>
       </c>
       <c r="C6" s="1">
-        <v>0.69662921343307804</v>
+        <v>0.68209500604020801</v>
       </c>
       <c r="D6" s="1">
-        <v>0.681818181768169</v>
+        <v>0.640176600391414</v>
       </c>
       <c r="E6" s="1">
-        <v>0.71479628300928699</v>
+        <v>0.66999287236622596</v>
       </c>
       <c r="F6" s="1">
-        <v>0.73462783166513801</v>
+        <v>0.70096463017503596</v>
       </c>
       <c r="G6" s="1">
-        <v>0.74568469500161705</v>
+        <v>0.74549549544537697</v>
       </c>
       <c r="H6" s="1">
-        <v>0.86919831218592303</v>
+        <v>0.88469601672112796</v>
       </c>
       <c r="I6" s="1">
-        <v>0.76404494377003895</v>
+        <v>0.751708428195764</v>
       </c>
       <c r="J6" s="2">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1">
+      <c r="K6" s="1">
+        <f>SUMIF($A$1:$A$9, "*-BL", $B$1:$B$9)</f>
+        <v>0.78397553081082405</v>
+      </c>
+      <c r="L6" s="3">
+        <f>B6-K6</f>
+        <v>-5.895709519151604E-2</v>
+      </c>
+      <c r="M6" s="6">
+        <f>B6/K6-1</f>
+        <v>-7.520272364947389E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>0.72501843561930801</v>
+        <v>0.71976850166176498</v>
       </c>
       <c r="C7" s="1">
-        <v>0.68209500604020801</v>
+        <v>0.70012547046433904</v>
       </c>
       <c r="D7" s="1">
-        <v>0.640176600391414</v>
+        <v>0.61585993815838402</v>
       </c>
       <c r="E7" s="1">
-        <v>0.66999287236622596</v>
+        <v>0.69893238429161397</v>
       </c>
       <c r="F7" s="1">
-        <v>0.70096463017503596</v>
+        <v>0.65828750976939399</v>
       </c>
       <c r="G7" s="1">
-        <v>0.74549549544537697</v>
+        <v>0.72138728318682899</v>
       </c>
       <c r="H7" s="1">
         <v>0.88469601672112796</v>
       </c>
       <c r="I7" s="1">
-        <v>0.751708428195764</v>
+        <v>0.75909090904066701</v>
       </c>
       <c r="J7" s="2">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1">
+        <v>4.5</v>
+      </c>
+      <c r="K7" s="1">
+        <f>SUMIF($A$1:$A$9, "*-BL", $B$1:$B$9)</f>
+        <v>0.78397553081082405</v>
+      </c>
+      <c r="L7" s="3">
+        <f>B7-K7</f>
+        <v>-6.4207029149059069E-2</v>
+      </c>
+      <c r="M7" s="6">
+        <f>B7/K7-1</f>
+        <v>-8.1899276987195235E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>0.71976850166176498</v>
+        <v>0.69999110496858397</v>
       </c>
       <c r="C8" s="1">
-        <v>0.70012547046433904</v>
+        <v>0.58362168391827496</v>
       </c>
       <c r="D8" s="1">
-        <v>0.61585993815838402</v>
+        <v>0.605809128580996</v>
       </c>
       <c r="E8" s="1">
-        <v>0.69893238429161397</v>
+        <v>0.67261496220137795</v>
       </c>
       <c r="F8" s="1">
-        <v>0.65828750976939399</v>
+        <v>0.63100775188813996</v>
       </c>
       <c r="G8" s="1">
-        <v>0.72138728318682899</v>
+        <v>0.70382513656204804</v>
       </c>
       <c r="H8" s="1">
-        <v>0.88469601672112796</v>
+        <v>0.91139240501290997</v>
       </c>
       <c r="I8" s="1">
-        <v>0.75909090904066701</v>
+        <v>0.791666666616338</v>
       </c>
       <c r="J8" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1">
+        <v>11.5</v>
+      </c>
+      <c r="K8" s="1">
+        <f>SUMIF($A$1:$A$9, "*-BL", $B$1:$B$9)</f>
+        <v>0.78397553081082405</v>
+      </c>
+      <c r="L8" s="3">
+        <f>B8-K8</f>
+        <v>-8.3984425842240085E-2</v>
+      </c>
+      <c r="M8" s="6">
+        <f>B8/K8-1</f>
+        <v>-0.10712633563368934</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0.77265212027319297</v>
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.69465114227134195</v>
       </c>
       <c r="C9" s="1">
-        <v>0.69731800761268603</v>
+        <v>0.60355029580830399</v>
       </c>
       <c r="D9" s="1">
-        <v>0.71748878918752301</v>
+        <v>0.61776859499164605</v>
       </c>
       <c r="E9" s="1">
-        <v>0.723214285664179</v>
+        <v>0.67586206891566103</v>
       </c>
       <c r="F9" s="1">
-        <v>0.77276456106555602</v>
+        <v>0.608036391155787</v>
       </c>
       <c r="G9" s="1">
-        <v>0.78300803668920804</v>
+        <v>0.67250821462691002</v>
       </c>
       <c r="H9" s="1">
-        <v>0.92340425526875602</v>
+        <v>0.90445859867573097</v>
       </c>
       <c r="I9" s="1">
-        <v>0.79136690642444296</v>
+        <v>0.78037383172535302</v>
       </c>
       <c r="J9" s="2">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1">
+        <v>11.5</v>
+      </c>
+      <c r="K9" s="1">
+        <f>SUMIF($A$1:$A$9, "*-BL", $B$1:$B$9)</f>
+        <v>0.78397553081082405</v>
+      </c>
+      <c r="L9" s="3">
+        <f>B9-K9</f>
+        <v>-8.9324388539482102E-2</v>
+      </c>
+      <c r="M9" s="6">
+        <f>B9/K9-1</f>
+        <v>-0.11393772513167422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -931,264 +1070,367 @@
       <c r="J11" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1">
-      <c r="A12" s="5" t="s">
+      <c r="K11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.70039776884646499</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.60643564351435397</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.59850905213327099</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.63745583033870701</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.669833729166178</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.71282633366155701</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.89552238800931905</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.78220140510187197</v>
+      </c>
+      <c r="J12" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="K12" s="1">
+        <f>SUMIF($A$11:$A$19, "*-BL", $B$11:$B$19)</f>
+        <v>0.66914183325248799</v>
+      </c>
+      <c r="L12" s="3">
+        <f>B12-K12</f>
+        <v>3.1255935593976991E-2</v>
+      </c>
+      <c r="M12" s="6">
+        <f>B12/K12-1</f>
+        <v>4.6710479065479538E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.69516502836001204</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.65743073042849498</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.59871244630198295</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.60169491520425999</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.68839427657957497</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.70179372192300105</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.86075949362052595</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.75736961446224105</v>
+      </c>
+      <c r="J13" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="K13" s="1">
+        <f>SUMIF($A$11:$A$19, "*-BL", $B$11:$B$19)</f>
+        <v>0.66914183325248799</v>
+      </c>
+      <c r="L13" s="3">
+        <f>B13-K13</f>
+        <v>2.6023195107524044E-2</v>
+      </c>
+      <c r="M13" s="6">
+        <f>B13/K13-1</f>
+        <v>3.8890402324770923E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.689394924521333</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.66408268728833797</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.57364341080263004</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.61381818176810898</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.65744507724854095</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.63060989638254095</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.90212765952408402</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.78403755863508795</v>
+      </c>
+      <c r="J14" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="K14" s="1">
+        <f>SUMIF($A$11:$A$19, "*-BL", $B$11:$B$19)</f>
+        <v>0.66914183325248799</v>
+      </c>
+      <c r="L14" s="3">
+        <f>B14-K14</f>
+        <v>2.0253091268845003E-2</v>
+      </c>
+      <c r="M14" s="6">
+        <f>B14/K14-1</f>
+        <v>3.0267262129466843E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.68801079069523197</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.63492063487070505</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.58747300210984599</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.62146892650369301</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.68805132312558803</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.68156424575997998</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.85714285709250504</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.74545454540431</v>
+      </c>
+      <c r="J15" s="2">
+        <v>12</v>
+      </c>
+      <c r="K15" s="1">
+        <f>SUMIF($A$11:$A$19, "*-BL", $B$11:$B$19)</f>
+        <v>0.66914183325248799</v>
+      </c>
+      <c r="L15" s="3">
+        <f>B15-K15</f>
+        <v>1.8868957442743972E-2</v>
+      </c>
+      <c r="M15" s="6">
+        <f>B15/K15-1</f>
+        <v>2.8198741290808016E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B16" s="1">
         <v>0.66914183325248799</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C16" s="1">
         <v>0.56430446189210903</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D16" s="1">
         <v>0.53718091004980795</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E16" s="1">
         <v>0.56054836247851403</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F16" s="1">
         <v>0.67567567562556796</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G16" s="1">
         <v>0.65550239229438201</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H16" s="1">
         <v>0.90405117265750401</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I16" s="1">
         <v>0.78672985776953297</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J16" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1">
-      <c r="A13" s="5" t="s">
+      <c r="K16" s="1">
+        <f>SUMIF($A$11:$A$19, "*-BL", $B$11:$B$19)</f>
+        <v>0.66914183325248799</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.66875145136585301</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.58169177283580698</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.55837563446826499</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.60839642114768899</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.59756097556004195</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.68387096769207101</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.90021231417467096</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.75115207368242398</v>
+      </c>
+      <c r="J17" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="K17" s="1">
+        <f>SUMIF($A$11:$A$19, "*-BL", $B$11:$B$19)</f>
+        <v>0.66914183325248799</v>
+      </c>
+      <c r="L17" s="3">
+        <f>B17-K17</f>
+        <v>-3.9038188663498286E-4</v>
+      </c>
+      <c r="M17" s="6">
+        <f>B17/K17-1</f>
+        <v>-5.8340678647672561E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B18" s="1">
         <v>0.65937479516243902</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C18" s="1">
         <v>0.57741559948481902</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D18" s="1">
         <v>0.55371900821480002</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E18" s="1">
         <v>0.60881355927230996</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F18" s="1">
         <v>0.56714178539678906</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G18" s="1">
         <v>0.63752665240223505</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H18" s="1">
         <v>0.91063829782195205</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I18" s="1">
         <v>0.76036866354417099</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J18" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1">
-      <c r="A14" s="5" t="s">
+      <c r="K18" s="1">
+        <f>SUMIF($A$11:$A$19, "*-BL", $B$11:$B$19)</f>
+        <v>0.66914183325248799</v>
+      </c>
+      <c r="L18" s="3">
+        <f>B18-K18</f>
+        <v>-9.7670380900489739E-3</v>
+      </c>
+      <c r="M18" s="6">
+        <f>B18/K18-1</f>
+        <v>-1.459636448460333E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.65403431094384801</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.598039215636331</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.48775292859761799</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.54571026717930504</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.670382165555095</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.66740823131813198</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.85894736837069596</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.74999999994976196</v>
+      </c>
+      <c r="J19" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="1">
-        <v>0.66875145136585301</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.58169177283580698</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.55837563446826499</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.60839642114768899</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.59756097556004195</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.68387096769207101</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.90021231417467096</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.75115207368242398</v>
-      </c>
-      <c r="J14" s="2">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.70039776884646499</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.60643564351435397</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.59850905213327099</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.63745583033870701</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.669833729166178</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.71282633366155701</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.89552238800931905</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.78220140510187197</v>
-      </c>
-      <c r="J15" s="2">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.65403431094384801</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.598039215636331</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.48775292859761799</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.54571026717930504</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.670382165555095</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.66740823131813198</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.85894736837069596</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.74999999994976196</v>
-      </c>
-      <c r="J16" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="18" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.68801079069523197</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.63492063487070505</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.58747300210984599</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.62146892650369301</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.68805132312558803</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.68156424575997998</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.85714285709250504</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.74545454540431</v>
-      </c>
-      <c r="J17" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="18" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0.69516502836001204</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.65743073042849498</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.59871244630198295</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.60169491520425999</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.68839427657957497</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.70179372192300105</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.86075949362052595</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.75736961446224105</v>
-      </c>
-      <c r="J18" s="2">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="18" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.689394924521333</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.66408268728833797</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.57364341080263004</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.61381818176810898</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.65744507724854095</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.63060989638254095</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.90212765952408402</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.78403755863508795</v>
-      </c>
-      <c r="J19" s="2">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="18" customHeight="1">
+      <c r="K19" s="1">
+        <f>SUMIF($A$11:$A$19, "*-BL", $B$11:$B$19)</f>
+        <v>0.66914183325248799</v>
+      </c>
+      <c r="L19" s="3">
+        <f>B19-K19</f>
+        <v>-1.5107522308639987E-2</v>
+      </c>
+      <c r="M19" s="6">
+        <f>B19/K19-1</f>
+        <v>-2.2577459004777922E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -1219,44 +1461,65 @@
       <c r="J21" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="18" customHeight="1">
+      <c r="K21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="1">
+        <v>23</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.80897278797053196</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.752179327471723</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.71205357137843694</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.79474068658247199</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.84848484843472705</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.81590909085893104</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.92340425526875602</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.816037735798676</v>
+      </c>
+      <c r="J22" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="K22" s="1">
+        <f>SUMIF($A$21:$A$29, "*-BL", $B$21:$B$29)</f>
         <v>0.693272773970531</v>
       </c>
-      <c r="C22" s="1">
-        <v>0.52853598009888803</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.59545454540441101</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.62529457968299895</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.67563025205072902</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.67356321834065602</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.92307692302652899</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.83135391918950996</v>
-      </c>
-      <c r="J22" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="18" customHeight="1">
+      <c r="L22" s="3">
+        <f>B22-K22</f>
+        <v>0.11570001400000096</v>
+      </c>
+      <c r="M22" s="6">
+        <f>B22/K22-1</f>
+        <v>0.16688959720336438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="7">
         <v>0.75450408903303001</v>
       </c>
       <c r="C23" s="1">
@@ -1283,8 +1546,20 @@
       <c r="J23" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="18" customHeight="1">
+      <c r="K23" s="1">
+        <f>SUMIF($A$21:$A$29, "*-BL", $B$21:$B$29)</f>
+        <v>0.693272773970531</v>
+      </c>
+      <c r="L23" s="3">
+        <f>B23-K23</f>
+        <v>6.1231315062499014E-2</v>
+      </c>
+      <c r="M23" s="6">
+        <f>B23/K23-1</f>
+        <v>8.8322111240303425E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1315,8 +1590,20 @@
       <c r="J24" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="18" customHeight="1">
+      <c r="K24" s="1">
+        <f>SUMIF($A$21:$A$29, "*-BL", $B$21:$B$29)</f>
+        <v>0.693272773970531</v>
+      </c>
+      <c r="L24" s="3">
+        <f>B24-K24</f>
+        <v>5.2059129319814046E-2</v>
+      </c>
+      <c r="M24" s="6">
+        <f>B24/K24-1</f>
+        <v>7.5091841587344499E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1347,40 +1634,64 @@
       <c r="J25" s="2">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="18" customHeight="1">
+      <c r="K25" s="1">
+        <f>SUMIF($A$21:$A$29, "*-BL", $B$21:$B$29)</f>
+        <v>0.693272773970531</v>
+      </c>
+      <c r="L25" s="3">
+        <f>B25-K25</f>
+        <v>5.1487399703553982E-2</v>
+      </c>
+      <c r="M25" s="6">
+        <f>B25/K25-1</f>
+        <v>7.4267159531844706E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1">
-        <v>0.72552424981489205</v>
+        <v>0.72762543632253496</v>
       </c>
       <c r="C26" s="1">
-        <v>0.60563380276729195</v>
+        <v>0.65099009895988802</v>
       </c>
       <c r="D26" s="1">
-        <v>0.60445387057578603</v>
+        <v>0.60729613728910503</v>
       </c>
       <c r="E26" s="1">
-        <v>0.705633802766923</v>
+        <v>0.71398154714657902</v>
       </c>
       <c r="F26" s="1">
-        <v>0.74014481089121698</v>
+        <v>0.73743016754774304</v>
       </c>
       <c r="G26" s="1">
-        <v>0.753812636115612</v>
+        <v>0.74509803916572304</v>
       </c>
       <c r="H26" s="1">
-        <v>0.87999999994963496</v>
+        <v>0.859538784016736</v>
       </c>
       <c r="I26" s="1">
-        <v>0.788990825637778</v>
+        <v>0.77904328013197099</v>
       </c>
       <c r="J26" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="18" customHeight="1">
+        <v>11.5</v>
+      </c>
+      <c r="K26" s="1">
+        <f>SUMIF($A$21:$A$29, "*-BL", $B$21:$B$29)</f>
+        <v>0.693272773970531</v>
+      </c>
+      <c r="L26" s="3">
+        <f>B26-K26</f>
+        <v>3.435266235200396E-2</v>
+      </c>
+      <c r="M26" s="6">
+        <f>B26/K26-1</f>
+        <v>4.9551437243465335E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -1411,72 +1722,106 @@
       <c r="J27" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="18" customHeight="1">
+      <c r="K27" s="1">
+        <f>SUMIF($A$21:$A$29, "*-BL", $B$21:$B$29)</f>
+        <v>0.693272773970531</v>
+      </c>
+      <c r="L27" s="3">
+        <f>B27-K27</f>
+        <v>3.3093582936165045E-2</v>
+      </c>
+      <c r="M27" s="6">
+        <f>B27/K27-1</f>
+        <v>4.7735298685726013E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B28" s="1">
-        <v>0.72762543632253496</v>
+        <v>0.72552424981489205</v>
       </c>
       <c r="C28" s="1">
-        <v>0.65099009895988802</v>
+        <v>0.60563380276729195</v>
       </c>
       <c r="D28" s="1">
-        <v>0.60729613728910503</v>
+        <v>0.60445387057578603</v>
       </c>
       <c r="E28" s="1">
-        <v>0.71398154714657902</v>
+        <v>0.705633802766923</v>
       </c>
       <c r="F28" s="1">
-        <v>0.73743016754774304</v>
+        <v>0.74014481089121698</v>
       </c>
       <c r="G28" s="1">
-        <v>0.74509803916572304</v>
+        <v>0.753812636115612</v>
       </c>
       <c r="H28" s="1">
-        <v>0.859538784016736</v>
+        <v>0.87999999994963496</v>
       </c>
       <c r="I28" s="1">
-        <v>0.77904328013197099</v>
+        <v>0.788990825637778</v>
       </c>
       <c r="J28" s="2">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="18" customHeight="1">
+        <v>12</v>
+      </c>
+      <c r="K28" s="1">
+        <f>SUMIF($A$21:$A$29, "*-BL", $B$21:$B$29)</f>
+        <v>0.693272773970531</v>
+      </c>
+      <c r="L28" s="3">
+        <f>B28-K28</f>
+        <v>3.2251475844361055E-2</v>
+      </c>
+      <c r="M28" s="6">
+        <f>B28/K28-1</f>
+        <v>4.6520615052642933E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="3">
-        <v>0.80897278797053196</v>
+        <v>16</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.693272773970531</v>
       </c>
       <c r="C29" s="1">
-        <v>0.752179327471723</v>
+        <v>0.52853598009888803</v>
       </c>
       <c r="D29" s="1">
-        <v>0.71205357137843694</v>
+        <v>0.59545454540441101</v>
       </c>
       <c r="E29" s="1">
-        <v>0.79474068658247199</v>
+        <v>0.62529457968299895</v>
       </c>
       <c r="F29" s="1">
-        <v>0.84848484843472705</v>
+        <v>0.67563025205072902</v>
       </c>
       <c r="G29" s="1">
-        <v>0.81590909085893104</v>
+        <v>0.67356321834065602</v>
       </c>
       <c r="H29" s="1">
-        <v>0.92340425526875602</v>
+        <v>0.92307692302652899</v>
       </c>
       <c r="I29" s="1">
-        <v>0.816037735798676</v>
+        <v>0.83135391918950996</v>
       </c>
       <c r="J29" s="2">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="18" customHeight="1">
+        <v>12</v>
+      </c>
+      <c r="K29" s="1">
+        <f>SUMIF($A$21:$A$29, "*-BL", $B$21:$B$29)</f>
+        <v>0.693272773970531</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -1507,136 +1852,193 @@
       <c r="J31" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="18" customHeight="1">
+      <c r="K31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0.76642619980405102</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.66412213735445003</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.66964285709273197</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.76260043822601198</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.77650897221743598</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.77765108318815301</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.92110874195387105</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.79334916859570404</v>
+      </c>
+      <c r="J32" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="K32" s="1">
+        <f>SUMIF($A$31:$A$39, "*-BL", $B$31:$B$39)</f>
         <v>0.48816726973845498</v>
       </c>
-      <c r="C32" s="1">
-        <v>0.119354838662336</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.29367088602646702</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0.339344262245594</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0.50753768839212599</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0.48067632845237401</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0.87846481871295101</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0.79812206567733401</v>
-      </c>
-      <c r="J32" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="18" customHeight="1">
+      <c r="L32" s="3">
+        <f>B32-K32</f>
+        <v>0.27825893006559604</v>
+      </c>
+      <c r="M32" s="6">
+        <f>B32/K32-1</f>
+        <v>0.57000734648736007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="1">
-        <v>0.70478987706142304</v>
+        <v>26</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0.71280380161235102</v>
       </c>
       <c r="C33" s="1">
-        <v>0.60088691791112503</v>
+        <v>0.57540603243311095</v>
       </c>
       <c r="D33" s="1">
-        <v>0.59677419349895</v>
+        <v>0.63301787587026104</v>
       </c>
       <c r="E33" s="1">
-        <v>0.69135802464153695</v>
+        <v>0.70922970154621401</v>
       </c>
       <c r="F33" s="1">
-        <v>0.64575363422721899</v>
+        <v>0.67432950186594098</v>
       </c>
       <c r="G33" s="1">
-        <v>0.70103092778554899</v>
+        <v>0.69198312231315395</v>
       </c>
       <c r="H33" s="1">
-        <v>0.89958158990779602</v>
+        <v>0.90566037730812099</v>
       </c>
       <c r="I33" s="1">
-        <v>0.79814385145778199</v>
+        <v>0.79999999994965498</v>
       </c>
       <c r="J33" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="18" customHeight="1">
+      <c r="K33" s="1">
+        <f>SUMIF($A$31:$A$39, "*-BL", $B$31:$B$39)</f>
+        <v>0.48816726973845498</v>
+      </c>
+      <c r="L33" s="3">
+        <f>B33-K33</f>
+        <v>0.22463653187389604</v>
+      </c>
+      <c r="M33" s="6">
+        <f>B33/K33-1</f>
+        <v>0.46016303385978619</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="4">
-        <v>0.71280380161235102</v>
+        <v>25</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.70478987706142304</v>
       </c>
       <c r="C34" s="1">
-        <v>0.57540603243311095</v>
+        <v>0.60088691791112503</v>
       </c>
       <c r="D34" s="1">
-        <v>0.63301787587026104</v>
+        <v>0.59677419349895</v>
       </c>
       <c r="E34" s="1">
-        <v>0.70922970154621401</v>
+        <v>0.69135802464153695</v>
       </c>
       <c r="F34" s="1">
-        <v>0.67432950186594098</v>
+        <v>0.64575363422721899</v>
       </c>
       <c r="G34" s="1">
-        <v>0.69198312231315395</v>
+        <v>0.70103092778554899</v>
       </c>
       <c r="H34" s="1">
-        <v>0.90566037730812099</v>
+        <v>0.89958158990779602</v>
       </c>
       <c r="I34" s="1">
-        <v>0.79999999994965498</v>
+        <v>0.79814385145778199</v>
       </c>
       <c r="J34" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="18" customHeight="1">
+      <c r="K34" s="1">
+        <f>SUMIF($A$31:$A$39, "*-BL", $B$31:$B$39)</f>
+        <v>0.48816726973845498</v>
+      </c>
+      <c r="L34" s="3">
+        <f>B34-K34</f>
+        <v>0.21662260732296806</v>
+      </c>
+      <c r="M34" s="6">
+        <f>B34/K34-1</f>
+        <v>0.44374668428513808</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B35" s="1">
-        <v>0.62137639783871701</v>
+        <v>0.65098622282563601</v>
       </c>
       <c r="C35" s="1">
-        <v>0.34028540060984402</v>
+        <v>0.49223946780028499</v>
       </c>
       <c r="D35" s="1">
-        <v>0.47191011231000701</v>
+        <v>0.49105367788314203</v>
       </c>
       <c r="E35" s="1">
-        <v>0.59796610164519304</v>
+        <v>0.61601085476709505</v>
       </c>
       <c r="F35" s="1">
-        <v>0.61029976935836705</v>
+        <v>0.64324746286970302</v>
       </c>
       <c r="G35" s="1">
-        <v>0.64482029593336299</v>
+        <v>0.67653276950629504</v>
       </c>
       <c r="H35" s="1">
-        <v>0.89451476788211504</v>
+        <v>0.859538784016736</v>
       </c>
       <c r="I35" s="1">
-        <v>0.78983833713212803</v>
+        <v>0.77828054293619697</v>
       </c>
       <c r="J35" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="18" customHeight="1">
+      <c r="K35" s="1">
+        <f>SUMIF($A$31:$A$39, "*-BL", $B$31:$B$39)</f>
+        <v>0.48816726973845498</v>
+      </c>
+      <c r="L35" s="3">
+        <f>B35-K35</f>
+        <v>0.16281895308718103</v>
+      </c>
+      <c r="M35" s="6">
+        <f>B35/K35-1</f>
+        <v>0.33353107260635162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -1667,106 +2069,152 @@
       <c r="J36" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="18" customHeight="1">
+      <c r="K36" s="1">
+        <f>SUMIF($A$31:$A$39, "*-BL", $B$31:$B$39)</f>
+        <v>0.48816726973845498</v>
+      </c>
+      <c r="L36" s="3">
+        <f>B36-K36</f>
+        <v>0.14519423306153806</v>
+      </c>
+      <c r="M36" s="6">
+        <f>B36/K36-1</f>
+        <v>0.29742721821421725</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B37" s="1">
-        <v>0.65098622282563601</v>
+        <v>0.62972744893260801</v>
       </c>
       <c r="C37" s="1">
-        <v>0.49223946780028499</v>
+        <v>0.44391971659736401</v>
       </c>
       <c r="D37" s="1">
-        <v>0.49105367788314203</v>
+        <v>0.51759834363562696</v>
       </c>
       <c r="E37" s="1">
-        <v>0.61601085476709505</v>
+        <v>0.48892065756257103</v>
       </c>
       <c r="F37" s="1">
-        <v>0.64324746286970302</v>
+        <v>0.62861491623644306</v>
       </c>
       <c r="G37" s="1">
-        <v>0.67653276950629504</v>
+        <v>0.67936507931533996</v>
       </c>
       <c r="H37" s="1">
-        <v>0.859538784016736</v>
+        <v>0.87341772146862195</v>
       </c>
       <c r="I37" s="1">
-        <v>0.77828054293619697</v>
+        <v>0.77625570771228702</v>
       </c>
       <c r="J37" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="18" customHeight="1">
+      <c r="K37" s="1">
+        <f>SUMIF($A$31:$A$39, "*-BL", $B$31:$B$39)</f>
+        <v>0.48816726973845498</v>
+      </c>
+      <c r="L37" s="3">
+        <f>B37-K37</f>
+        <v>0.14156017919415304</v>
+      </c>
+      <c r="M37" s="6">
+        <f>B37/K37-1</f>
+        <v>0.28998293816379084</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B38" s="1">
-        <v>0.62972744893260801</v>
+        <v>0.62137639783871701</v>
       </c>
       <c r="C38" s="1">
-        <v>0.44391971659736401</v>
+        <v>0.34028540060984402</v>
       </c>
       <c r="D38" s="1">
-        <v>0.51759834363562696</v>
+        <v>0.47191011231000701</v>
       </c>
       <c r="E38" s="1">
-        <v>0.48892065756257103</v>
+        <v>0.59796610164519304</v>
       </c>
       <c r="F38" s="1">
-        <v>0.62861491623644306</v>
+        <v>0.61029976935836705</v>
       </c>
       <c r="G38" s="1">
-        <v>0.67936507931533996</v>
+        <v>0.64482029593336299</v>
       </c>
       <c r="H38" s="1">
-        <v>0.87341772146862195</v>
+        <v>0.89451476788211504</v>
       </c>
       <c r="I38" s="1">
-        <v>0.77625570771228702</v>
+        <v>0.78983833713212803</v>
       </c>
       <c r="J38" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="18" customHeight="1">
+      <c r="K38" s="1">
+        <f>SUMIF($A$31:$A$39, "*-BL", $B$31:$B$39)</f>
+        <v>0.48816726973845498</v>
+      </c>
+      <c r="L38" s="3">
+        <f>B38-K38</f>
+        <v>0.13320912810026203</v>
+      </c>
+      <c r="M38" s="6">
+        <f>B38/K38-1</f>
+        <v>0.27287599222215664</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="3">
-        <v>0.76642619980405102</v>
+        <v>24</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.48816726973845498</v>
       </c>
       <c r="C39" s="1">
-        <v>0.66412213735445003</v>
+        <v>0.119354838662336</v>
       </c>
       <c r="D39" s="1">
-        <v>0.66964285709273197</v>
+        <v>0.29367088602646702</v>
       </c>
       <c r="E39" s="1">
-        <v>0.76260043822601198</v>
+        <v>0.339344262245594</v>
       </c>
       <c r="F39" s="1">
-        <v>0.77650897221743598</v>
+        <v>0.50753768839212599</v>
       </c>
       <c r="G39" s="1">
-        <v>0.77765108318815301</v>
+        <v>0.48067632845237401</v>
       </c>
       <c r="H39" s="1">
-        <v>0.92110874195387105</v>
+        <v>0.87846481871295101</v>
       </c>
       <c r="I39" s="1">
-        <v>0.79334916859570404</v>
+        <v>0.79812206567733401</v>
       </c>
       <c r="J39" s="2">
-        <v>10.5</v>
+        <v>12</v>
+      </c>
+      <c r="K39" s="1">
+        <f>SUMIF($A$31:$A$39, "*-BL", $B$31:$B$39)</f>
+        <v>0.48816726973845498</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A32:J39">
-    <sortCondition ref="A31:A39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A32:M39">
+    <sortCondition descending="1" ref="B31:B39"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
